--- a/datasets/contracts_info.xlsx
+++ b/datasets/contracts_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vishal\PycharmProjects\mindshift\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E5F12B-4101-4E79-949A-070E1214799E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD34EE4-CF22-44EF-818A-5A17D3A13C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3A7FCD87-CA1D-47B6-9BD0-551AF79C5F89}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="70">
   <si>
     <t>Sales</t>
   </si>
@@ -60,9 +60,6 @@
     <t>500 Energy Way, Innovation City, Techstate, 12345, USA</t>
   </si>
   <si>
-    <t>20-02-2025</t>
-  </si>
-  <si>
     <t>New Electronics Inc.</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>200 Energy Blvd, Innovation Center, Powerstate, 34567, USA</t>
   </si>
   <si>
-    <t>15-03-2025</t>
-  </si>
-  <si>
     <t>Volt Solutions Inc.</t>
   </si>
   <si>
@@ -111,9 +105,6 @@
     <t>300 Power Ave, Energy Village, Electroncity, 78901, USA</t>
   </si>
   <si>
-    <t>25-03-2025</t>
-  </si>
-  <si>
     <t>Green Tech Corp.</t>
   </si>
   <si>
@@ -144,9 +135,6 @@
     <t>300 Battery Blvd, Energy Park, Powercity, 34567, USA</t>
   </si>
   <si>
-    <t>20-04-2025</t>
-  </si>
-  <si>
     <t>ElectroTech Inc.</t>
   </si>
   <si>
@@ -177,9 +165,6 @@
     <t>400 Battery Ave, Power District, Cellville, 56789, USA</t>
   </si>
   <si>
-    <t>15-05-2025</t>
-  </si>
-  <si>
     <t>Current Tech Inc.</t>
   </si>
   <si>
@@ -193,9 +178,6 @@
   </si>
   <si>
     <t>300 Current Ave, Energy Zone, Powerville, 67890, USA</t>
-  </si>
-  <si>
-    <t>25-05-2026</t>
   </si>
   <si>
     <t>PowerCell Inc.</t>
@@ -332,15 +314,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -671,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AF27A7-BD1D-4074-A317-BBD48E9964E2}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,53 +670,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -747,16 +726,17 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>45627</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>45342</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
       </c>
       <c r="F2" s="3">
+        <f>C2+E2*365</f>
         <v>46357</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -775,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M2" s="1">
         <v>100</v>
@@ -797,44 +777,45 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>44977</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>45201</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F11" si="0">C3+E3*365</f>
+        <v>45707</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M3" s="1">
         <v>98</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>7</v>
@@ -847,44 +828,45 @@
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>44684</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>44666</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="4">
-        <v>45780</v>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>45414</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M4" s="1">
         <v>99</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>7</v>
@@ -897,44 +879,45 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>44635</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>44676</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>45365</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M5" s="1">
         <v>97</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>7</v>
@@ -947,44 +930,45 @@
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>45010</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>45051</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>45740</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M6" s="1">
         <v>96</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>7</v>
@@ -997,44 +981,45 @@
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>45203</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>45066</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="4">
-        <v>46299</v>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>45933</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="L7" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M7" s="1">
         <v>98</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>7</v>
@@ -1047,44 +1032,45 @@
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>44671</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>44711</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>36</v>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>45401</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M8" s="1">
         <v>97</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>7</v>
@@ -1097,44 +1083,45 @@
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>45051</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>45092</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="4">
-        <v>46147</v>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>45781</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M9" s="1">
         <v>96</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>7</v>
@@ -1147,44 +1134,45 @@
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>44696</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>44737</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>47</v>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>45426</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M10" s="1">
         <v>97</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>7</v>
@@ -1197,44 +1185,45 @@
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>45071</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>45053</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>53</v>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>45801</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M11" s="1">
         <v>95</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>7</v>
